--- a/wykres.xlsx
+++ b/wykres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gda-nas\s22785\windows\desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D9E0DB0-B992-442B-8915-DE20AA82DDA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F058E56A-286F-4EE7-94A1-DD661585C814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{023160B1-A0AF-429A-A14D-CB65B60ADF77}"/>
   </bookViews>
@@ -425,6 +425,11 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$A$2:$A$21</c:f>
@@ -774,6 +779,11 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$D$2:$D$21</c:f>
@@ -1292,6 +1302,11 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$G$2:$G$21</c:f>
@@ -2188,7 +2203,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
